--- a/Project 2/Miss_Rates_and_Exec_Time.xlsx
+++ b/Project 2/Miss_Rates_and_Exec_Time.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="460" windowWidth="13840" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Long Trace 1" sheetId="1" r:id="rId1"/>
     <sheet name="Long Trace 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>64 Bytes</t>
   </si>
@@ -62,11 +63,35 @@
   <si>
     <t>I Cache Miss Rate</t>
   </si>
+  <si>
+    <t xml:space="preserve">Associativity: </t>
+  </si>
+  <si>
+    <t>I Cache Miss %</t>
+  </si>
+  <si>
+    <t>D Cache Miss %</t>
+  </si>
+  <si>
+    <t>Long Trace 1</t>
+  </si>
+  <si>
+    <t>Long Trace 2</t>
+  </si>
+  <si>
+    <t>Values above, not as percentages</t>
+  </si>
+  <si>
+    <t>&lt;-----All Values as %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,16 +191,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,12 +227,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,6 +254,1913 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Long</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Trace 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I Cache Miss %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experiment 3'!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D Cache Miss %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experiment 3'!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.4844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.4588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1142312464"/>
+        <c:axId val="-1148787872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1142312464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1148787872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1148787872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1142312464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Long</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Trace 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I Cache Miss %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experiment 3'!$G$8:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D Cache Miss %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experiment 3'!$H$8:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.5937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.4635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.4479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1142358208"/>
+        <c:axId val="-1121045040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1142358208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1121045040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1121045040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1142358208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,197 +2426,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
+        <f>B11*100</f>
+        <v>0.46299999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:J3" si="0">C11*100</f>
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>25.900000000000002</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.221</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>38861893900</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" si="0"/>
+        <v>31069585900</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="0"/>
+        <v>25891823900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:J6" si="1">B12*100</f>
+        <v>1.6957</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>31.1525</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>18.096599999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>10.647500000000001</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>36937987900</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="1"/>
+        <v>24312345900</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="1"/>
+        <v>19311783900</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0387999999999997</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>48.555199999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>16.108000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>8.301400000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>53613195900</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>22627049900</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="1"/>
+        <v>17334305900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3050999999999995</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>67.162300000000002</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>17.006</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7254000000000005</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>70394625900</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>23332567900</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>16848905900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>4.6299999999999996E-3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C11" s="9">
         <v>1.77E-5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D11" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E11" s="9">
         <v>0.36</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F11" s="9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G11" s="9">
         <v>0.18221000000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H11" s="8">
         <f>388618939</f>
         <v>388618939</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I11" s="8">
         <v>310695859</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J11" s="8">
         <v>258918239</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>1.6957E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C12" s="9">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D12" s="9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E12" s="9">
         <v>0.311525</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F12" s="9">
         <v>0.18096599999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G12" s="9">
         <v>0.106475</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H12" s="8">
         <v>369379879</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I12" s="8">
         <v>243123459</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J12" s="8">
         <v>193117839</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>3.0387999999999998E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.48555199999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.16108</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8.3014000000000004E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>536131959</v>
+      </c>
+      <c r="I13" s="8">
+        <v>226270499</v>
+      </c>
+      <c r="J13" s="8">
+        <v>173343059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>3.3050999999999997E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>3.0387999999999998E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.48555199999999998</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.16108</v>
-      </c>
-      <c r="G5" s="7">
-        <v>8.3014000000000004E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>536131959</v>
-      </c>
-      <c r="I5" s="6">
-        <v>226270499</v>
-      </c>
-      <c r="J5" s="6">
-        <v>173343059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3.3050999999999997E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="E14" s="9">
         <v>0.67162299999999997</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F14" s="9">
         <v>0.17005999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G14" s="9">
         <v>7.7254000000000003E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H14" s="8">
         <v>703946259</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I14" s="8">
         <v>233325679</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J14" s="8">
         <v>168489059</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -672,197 +2808,556 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
+        <f>B11*100</f>
+        <v>0.69141740000000007</v>
+      </c>
+      <c r="C3" s="9">
+        <f>C11*100</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D11*100</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:J3" si="0">E11*100</f>
+        <v>60.910470100000005</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>53.432400000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>46.560600000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>69847447600</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>61756419600</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>55690603600</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:C4" si="1">B12*100</f>
+        <v>0.1953</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:F4" si="2">D12*100</f>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="2"/>
+        <v>58.1492</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="2"/>
+        <v>53.767499999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:J4" si="3">G12*100</f>
+        <v>47.191200000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>65647481600</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>61678609600</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>56055601600</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ref="B5:C5" si="4">B13*100</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:F5" si="5">D13*100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="5"/>
+        <v>53.850299999999997</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="5"/>
+        <v>44.982100000000003</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:J5" si="6">G13*100</f>
+        <v>41.868699999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="6"/>
+        <v>61686609600</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="6"/>
+        <v>54479033600</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="6"/>
+        <v>51743975600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ref="B6:C6" si="7">B14*100</f>
+        <v>2.12E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:F6" si="8">D14*100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="8"/>
+        <v>52.047900000000006</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="8"/>
+        <v>24.2393</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6:J6" si="9">G14*100</f>
+        <v>21.8507</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="9"/>
+        <v>56009753600</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="9"/>
+        <v>33332515600</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="9"/>
+        <v>31188585600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>6.9141740000000004E-3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C11" s="9">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D11" s="9">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E11" s="9">
         <v>0.60910470100000003</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F11" s="9">
         <v>0.53432400000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G11" s="9">
         <v>0.46560600000000002</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H11" s="1">
         <v>698474476</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I11" s="1">
         <v>617564196</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J11" s="1">
         <v>556906036</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>1.9530000000000001E-3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C12" s="9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D12" s="9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E12" s="9">
         <v>0.58149200000000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F12" s="9">
         <v>0.53767500000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G12" s="9">
         <v>0.471912</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H12" s="1">
         <v>656474816</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I12" s="1">
         <v>616786096</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J12" s="1">
         <v>560556016</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>5.7499999999999999E-4</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E13" s="9">
+        <v>0.53850299999999995</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.44982100000000003</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.41868699999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>616866096</v>
+      </c>
+      <c r="I13" s="1">
+        <v>544790336</v>
+      </c>
+      <c r="J13" s="1">
+        <v>517439756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>2.12E-4</v>
+      </c>
+      <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.53850299999999995</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.44982100000000003</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.41868699999999998</v>
-      </c>
-      <c r="H5" s="1">
-        <v>616866096</v>
-      </c>
-      <c r="I5" s="1">
-        <v>544790336</v>
-      </c>
-      <c r="J5" s="1">
-        <v>517439756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2.12E-4</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="E14" s="9">
         <v>0.52047900000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F14" s="9">
         <v>0.242393</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G14" s="9">
         <v>0.21850700000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H14" s="1">
         <v>560097536</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I14" s="1">
         <v>333325156</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J14" s="1">
         <v>311885856</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <f>0.000006*100</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="C4" s="11">
+        <f>0.000003*100</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="D4" s="11">
+        <f>0.000003*100</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <f>0.000001*100</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:I4" si="0">0.000001*100</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11">
+        <f>0.184844*100</f>
+        <v>18.484400000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>14.641400000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>14.4588</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <f>0.495937*100</f>
+        <v>49.593699999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <f>0.494635*100</f>
+        <v>49.463499999999996</v>
+      </c>
+      <c r="I5" s="1">
+        <f>0.494479*100</f>
+        <v>49.447899999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
+        <f>0.000006*100</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="C8" s="12">
+        <f>0.184844*100</f>
+        <v>18.484400000000001</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="G8">
+        <v>1E-4</v>
+      </c>
+      <c r="H8">
+        <v>49.593699999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
+        <f>0.000003*100</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>14.641400000000001</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="G9">
+        <v>1E-4</v>
+      </c>
+      <c r="H9">
+        <v>49.463500000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
+        <f>0.000003*100</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>14.4588</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="G10">
+        <v>1E-4</v>
+      </c>
+      <c r="H10">
+        <v>49.447899999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project 2/Miss_Rates_and_Exec_Time.xlsx
+++ b/Project 2/Miss_Rates_and_Exec_Time.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Long Trace 1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -208,7 +208,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -217,23 +228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -301,7 +301,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -448,11 +447,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1142312464"/>
-        <c:axId val="-1148787872"/>
+        <c:axId val="-125962336"/>
+        <c:axId val="-129335232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1142312464"/>
+        <c:axId val="-125962336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1148787872"/>
+        <c:crossAx val="-129335232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1148787872"/>
+        <c:axId val="-129335232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1142312464"/>
+        <c:crossAx val="-125962336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -567,7 +566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -679,7 +677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -826,11 +823,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1142358208"/>
-        <c:axId val="-1121045040"/>
+        <c:axId val="-126000064"/>
+        <c:axId val="-125975360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1142358208"/>
+        <c:axId val="-126000064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1121045040"/>
+        <c:crossAx val="-125975360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1121045040"/>
+        <c:axId val="-125975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1142358208"/>
+        <c:crossAx val="-126000064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -945,7 +942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2428,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2438,359 +2434,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <f>B11*100</f>
         <v>0.46299999999999997</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:J3" si="0">C11*100</f>
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>1.8E-3</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>25.900000000000002</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>18.221</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="0"/>
-        <v>38861893900</v>
-      </c>
-      <c r="I3" s="9">
-        <f t="shared" si="0"/>
-        <v>31069585900</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" si="0"/>
-        <v>25891823900</v>
+      <c r="H3" s="4">
+        <f>388618939</f>
+        <v>388618939</v>
+      </c>
+      <c r="I3" s="4">
+        <v>310695859</v>
+      </c>
+      <c r="J3" s="4">
+        <v>258918239</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <f t="shared" ref="B4:J6" si="1">B12*100</f>
         <v>1.6957</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <f t="shared" si="1"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>31.1525</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>18.096599999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>10.647500000000001</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" si="1"/>
-        <v>36937987900</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="1"/>
-        <v>24312345900</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="1"/>
-        <v>19311783900</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="H4" s="4">
+        <v>369379879</v>
+      </c>
+      <c r="I4" s="4">
+        <v>243123459</v>
+      </c>
+      <c r="J4" s="4">
+        <v>193117839</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>3.0387999999999997</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <f t="shared" si="1"/>
         <v>1.9999999999999998E-4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>9.9999999999999991E-5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>48.555199999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>16.108000000000001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>8.301400000000001</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" si="1"/>
-        <v>53613195900</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>22627049900</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="1"/>
-        <v>17334305900</v>
+      <c r="H5" s="4">
+        <v>536131959</v>
+      </c>
+      <c r="I5" s="4">
+        <v>226270499</v>
+      </c>
+      <c r="J5" s="4">
+        <v>173343059</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>3.3050999999999995</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <f t="shared" si="1"/>
         <v>9.9999999999999991E-5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>67.162300000000002</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>17.006</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>7.7254000000000005</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" si="1"/>
-        <v>70394625900</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>23332567900</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="1"/>
-        <v>16848905900</v>
+      <c r="H6" s="4">
+        <v>703946259</v>
+      </c>
+      <c r="I6" s="4">
+        <v>233325679</v>
+      </c>
+      <c r="J6" s="4">
+        <v>168489059</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>4.6299999999999996E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>1.77E-5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>1.8E-5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>0.36</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>0.18221000000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <f>388618939</f>
-        <v>388618939</v>
-      </c>
-      <c r="I11" s="8">
-        <v>310695859</v>
-      </c>
-      <c r="J11" s="8">
-        <v>258918239</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>1.6957E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>0.311525</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>0.18096599999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>0.106475</v>
-      </c>
-      <c r="H12" s="8">
-        <v>369379879</v>
-      </c>
-      <c r="I12" s="8">
-        <v>243123459</v>
-      </c>
-      <c r="J12" s="8">
-        <v>193117839</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>3.0387999999999998E-2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>0.48555199999999998</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>0.16108</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>8.3014000000000004E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>536131959</v>
-      </c>
-      <c r="I13" s="8">
-        <v>226270499</v>
-      </c>
-      <c r="J13" s="8">
-        <v>173343059</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>3.3050999999999997E-2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>0.67162299999999997</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>0.17005999999999999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>7.7254000000000003E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>703946259</v>
-      </c>
-      <c r="I14" s="8">
-        <v>233325679</v>
-      </c>
-      <c r="J14" s="8">
-        <v>168489059</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2747,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2810,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2821,348 +2769,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <f>B11*100</f>
         <v>0.69141740000000007</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <f>C11*100</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <f>D11*100</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:J3" si="0">E11*100</f>
         <v>60.910470100000005</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>53.432400000000001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>46.560600000000001</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>69847447600</v>
+        <v>698474476</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>61756419600</v>
+        <v>617564196</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="0"/>
-        <v>55690603600</v>
-      </c>
-      <c r="M3" s="13"/>
+        <v>556906036</v>
+      </c>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <f t="shared" ref="B4:C4" si="1">B12*100</f>
         <v>0.1953</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <f t="shared" si="1"/>
         <v>1.9999999999999998E-4</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:F4" si="2">D12*100</f>
         <v>1.9999999999999998E-4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>58.1492</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <f t="shared" si="2"/>
         <v>53.767499999999998</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <f t="shared" ref="G4:J4" si="3">G12*100</f>
         <v>47.191200000000002</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="3"/>
-        <v>65647481600</v>
+        <v>656474816</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>61678609600</v>
+        <v>616786096</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>56055601600</v>
-      </c>
-      <c r="L4" s="13" t="s">
+        <v>560556016</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <f t="shared" ref="B5:C5" si="4">B13*100</f>
         <v>5.7499999999999996E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:F5" si="5">D13*100</f>
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <f t="shared" si="5"/>
         <v>53.850299999999997</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <f t="shared" si="5"/>
         <v>44.982100000000003</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:J5" si="6">G13*100</f>
         <v>41.868699999999997</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="6"/>
-        <v>61686609600</v>
+        <v>616866096</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="6"/>
-        <v>54479033600</v>
+        <v>544790336</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="6"/>
-        <v>51743975600</v>
+        <v>517439756</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:C6" si="7">B14*100</f>
         <v>2.12E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:F6" si="8">D14*100</f>
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <f t="shared" si="8"/>
         <v>52.047900000000006</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <f t="shared" si="8"/>
         <v>24.2393</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <f t="shared" ref="G6:J6" si="9">G14*100</f>
         <v>21.8507</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="9"/>
-        <v>56009753600</v>
+        <v>560097536</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>33332515600</v>
+        <v>333325156</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="9"/>
-        <v>31188585600</v>
+        <v>311885856</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>6.9141740000000004E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>0.60910470100000003</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>0.53432400000000002</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>0.46560600000000002</v>
-      </c>
-      <c r="H11" s="1">
-        <v>698474476</v>
-      </c>
-      <c r="I11" s="1">
-        <v>617564196</v>
-      </c>
-      <c r="J11" s="1">
-        <v>556906036</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>1.9530000000000001E-3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>0.58149200000000001</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>0.53767500000000001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>0.471912</v>
-      </c>
-      <c r="H12" s="1">
-        <v>656474816</v>
-      </c>
-      <c r="I12" s="1">
-        <v>616786096</v>
-      </c>
-      <c r="J12" s="1">
-        <v>560556016</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>5.7499999999999999E-4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>0.53850299999999995</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>0.44982100000000003</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>0.41868699999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <v>616866096</v>
-      </c>
-      <c r="I13" s="1">
-        <v>544790336</v>
-      </c>
-      <c r="J13" s="1">
-        <v>517439756</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>2.12E-4</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>0.52047900000000002</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>0.242393</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>0.21850700000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>560097536</v>
-      </c>
-      <c r="I14" s="1">
-        <v>333325156</v>
-      </c>
-      <c r="J14" s="1">
-        <v>311885856</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3071,7 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,52 +3092,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>8</v>
       </c>
     </row>
@@ -3245,15 +3145,15 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <f>0.000006*100</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <f>0.000003*100</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <f>0.000003*100</f>
         <v>3.0000000000000003E-4</v>
       </c>
@@ -3277,14 +3177,14 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <f>0.184844*100</f>
         <v>18.484400000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>14.641400000000001</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>14.4588</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3304,15 +3204,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <f>0.000006*100</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <f>0.184844*100</f>
         <v>18.484400000000001</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="7"/>
       <c r="G8">
         <v>1E-4</v>
       </c>
@@ -3321,14 +3221,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <f>0.000003*100</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>14.641400000000001</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="7"/>
       <c r="G9">
         <v>1E-4</v>
       </c>
@@ -3337,14 +3237,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <f>0.000003*100</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>14.4588</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="7"/>
       <c r="G10">
         <v>1E-4</v>
       </c>
